--- a/Wing results/2017_10_16Lab 18 prelim data table.xlsx
+++ b/Wing results/2017_10_16Lab 18 prelim data table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\Wing results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\Wing results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="10245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 18 wing len cs data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="874">
   <si>
     <t>ARS</t>
   </si>
@@ -2629,13 +2630,31 @@
   </si>
   <si>
     <t>Average CS</t>
+  </si>
+  <si>
+    <t>Pairwise comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pairwise comparisons using t tests with pooled SD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data:  labwingdat$Centroid.Size and labwingdat$Locality </t>
+  </si>
+  <si>
+    <t>a_a&lt;-pairwise.t.test(labwingdat$Centroid.Size, labwingdat$Locality, p.adj= "bonferroni")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P value adjustment method: none </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2643,13 +2662,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2664,11 +2695,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2982,20 +3021,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>866</v>
       </c>
@@ -3005,7 +3044,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -3031,7 +3070,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3060,7 +3099,7 @@
         <v>0.104315265285847</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3089,7 +3128,7 @@
         <v>9.9671228756752703E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3118,7 +3157,7 @@
         <v>0.150235488754285</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3147,7 +3186,7 @@
         <v>0.14973441769000201</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3176,7 +3215,7 @@
         <v>0.10840780035506201</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3205,7 +3244,7 @@
         <v>0.13254216540389399</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3234,7 +3273,7 @@
         <v>0.14728764734289401</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3263,7 +3302,7 @@
         <v>0.14564508236429599</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3292,7 +3331,7 @@
         <v>0.13153755020722599</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3321,7 +3360,7 @@
         <v>7.9105482068985905E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3350,7 +3389,7 @@
         <v>0.10955850099144</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3379,7 +3418,7 @@
         <v>8.6511466616155705E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3408,7 +3447,7 @@
         <v>9.2918509149477801E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>14</v>
       </c>
@@ -3437,7 +3476,7 @@
         <v>0.120684725923786</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>15</v>
       </c>
@@ -3466,7 +3505,7 @@
         <v>0.121021118012961</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>16</v>
       </c>
@@ -3495,7 +3534,7 @@
         <v>0.10664817398611599</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>17</v>
       </c>
@@ -3524,7 +3563,7 @@
         <v>0.126708524505248</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>18</v>
       </c>
@@ -3553,7 +3592,7 @@
         <v>8.5736921805169605E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>19</v>
       </c>
@@ -3582,7 +3621,7 @@
         <v>8.7770886337380796E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>20</v>
       </c>
@@ -3611,7 +3650,7 @@
         <v>7.4924278301596897E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>21</v>
       </c>
@@ -3640,7 +3679,7 @@
         <v>0.111141151855273</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>22</v>
       </c>
@@ -3669,7 +3708,7 @@
         <v>0.123214865212274</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>23</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>9.7744118136236999E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>24</v>
       </c>
@@ -3727,7 +3766,7 @@
         <v>0.14005540543216199</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>25</v>
       </c>
@@ -3756,7 +3795,7 @@
         <v>0.104675976909018</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>26</v>
       </c>
@@ -3785,7 +3824,7 @@
         <v>0.13647062742914701</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>27</v>
       </c>
@@ -3814,7 +3853,7 @@
         <v>0.13339456581852599</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3843,7 +3882,7 @@
         <v>0.123768068418513</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3872,7 +3911,7 @@
         <v>8.8481716426695306E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>30</v>
       </c>
@@ -3901,7 +3940,7 @@
         <v>0.108268334852893</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>31</v>
       </c>
@@ -3930,7 +3969,7 @@
         <v>0.15012735449401099</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3959,7 +3998,7 @@
         <v>0.13803888217317001</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3988,7 +4027,7 @@
         <v>0.118595468012725</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>34</v>
       </c>
@@ -4017,7 +4056,7 @@
         <v>0.10768369616309099</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>35</v>
       </c>
@@ -4046,7 +4085,7 @@
         <v>0.109341014230653</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>36</v>
       </c>
@@ -4075,7 +4114,7 @@
         <v>0.140743911958089</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>37</v>
       </c>
@@ -4104,7 +4143,7 @@
         <v>0.12215383172902</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>38</v>
       </c>
@@ -4133,7 +4172,7 @@
         <v>0.105641187281118</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>39</v>
       </c>
@@ -4162,7 +4201,7 @@
         <v>0.118766260242265</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>40</v>
       </c>
@@ -4191,7 +4230,7 @@
         <v>0.120866489368692</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>41</v>
       </c>
@@ -4220,7 +4259,7 @@
         <v>0.11761446172922201</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>42</v>
       </c>
@@ -4259,19 +4298,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>862</v>
       </c>
@@ -4300,7 +4339,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4329,7 +4368,7 @@
         <v>0.92485667047902798</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4358,7 +4397,7 @@
         <v>0.84412323130554701</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4387,7 +4426,7 @@
         <v>0.85457300912129197</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4416,7 +4455,7 @@
         <v>0.91277085997953</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4445,7 +4484,7 @@
         <v>0.77861527872034098</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4474,7 +4513,7 @@
         <v>0.84808995540588195</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4503,7 +4542,7 @@
         <v>0.85859405773687403</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4532,7 +4571,7 @@
         <v>0.92228707319750303</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4561,7 +4600,7 @@
         <v>0.91506066562708999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4590,7 +4629,7 @@
         <v>0.96104581574139902</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4619,7 +4658,7 @@
         <v>0.93898933237071303</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>0.86109806578306902</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4677,7 +4716,7 @@
         <v>0.82627430330462803</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4706,7 +4745,7 @@
         <v>0.89773471464063004</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -4735,7 +4774,7 @@
         <v>0.80278180331564197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -4764,7 +4803,7 @@
         <v>0.91790495808358996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4793,7 +4832,7 @@
         <v>0.88360591802599298</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4822,7 +4861,7 @@
         <v>0.88483824170380099</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4851,7 +4890,7 @@
         <v>0.90245783843377003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4880,7 +4919,7 @@
         <v>0.848970085862777</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4909,7 +4948,7 @@
         <v>0.92742166296154704</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -4938,7 +4977,7 @@
         <v>0.990190271918437</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4967,7 +5006,7 @@
         <v>0.92124281032433497</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -4996,7 +5035,7 @@
         <v>0.94506302744619297</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -5025,7 +5064,7 @@
         <v>0.91913508325446402</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5054,7 +5093,7 @@
         <v>0.84808663996239197</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5083,7 +5122,7 @@
         <v>0.80469758359034604</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -5112,7 +5151,7 @@
         <v>0.96491278681660597</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -5141,7 +5180,7 @@
         <v>0.81644366871486396</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5170,7 +5209,7 @@
         <v>0.79557921091719996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -5199,7 +5238,7 @@
         <v>0.79822719197704795</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -5228,7 +5267,7 @@
         <v>0.85846610025441294</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -5257,7 +5296,7 @@
         <v>0.89194319581999604</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5286,7 +5325,7 @@
         <v>0.89288014099150503</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -5315,7 +5354,7 @@
         <v>0.96966803058753404</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -5344,7 +5383,7 @@
         <v>0.96490848409272401</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -5373,7 +5412,7 @@
         <v>0.84831556596528901</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -5402,7 +5441,7 @@
         <v>0.80909202012942305</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5470,7 @@
         <v>0.79934071167626397</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -5460,7 +5499,7 @@
         <v>0.97644213545126501</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +5528,7 @@
         <v>0.924711818450487</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -5518,7 +5557,7 @@
         <v>0.90100448328906502</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -5547,7 +5586,7 @@
         <v>0.93192561917264605</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -5576,7 +5615,7 @@
         <v>0.91813845037855302</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -5605,7 +5644,7 @@
         <v>0.793504151876401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -5634,7 +5673,7 @@
         <v>0.87640405108793096</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -5663,7 +5702,7 @@
         <v>0.81259099915392796</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -5692,7 +5731,7 @@
         <v>0.71440677545170805</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -5721,7 +5760,7 @@
         <v>0.88496765323058302</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -5750,7 +5789,7 @@
         <v>0.82012654203721702</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -5779,7 +5818,7 @@
         <v>0.84089273152721</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -5808,7 +5847,7 @@
         <v>0.81010522881290903</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -5837,7 +5876,7 @@
         <v>0.92472776489309605</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -5866,7 +5905,7 @@
         <v>0.86812844866882299</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -5895,7 +5934,7 @@
         <v>0.81202808066688303</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -5924,7 +5963,7 @@
         <v>0.90596430499605696</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -5953,7 +5992,7 @@
         <v>0.87394113967418596</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -5982,7 +6021,7 @@
         <v>0.97229477362648198</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -6011,7 +6050,7 @@
         <v>0.92233092706822895</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -6040,7 +6079,7 @@
         <v>0.87501242486637099</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -6069,7 +6108,7 @@
         <v>0.73379989197974904</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -6098,7 +6137,7 @@
         <v>0.91674391159150803</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -6127,7 +6166,7 @@
         <v>0.90798933233365398</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -6156,7 +6195,7 @@
         <v>0.92712444370651104</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -6185,7 +6224,7 @@
         <v>0.97312507271054804</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -6214,7 +6253,7 @@
         <v>0.86810249716136201</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -6243,7 +6282,7 @@
         <v>0.84193320564162299</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -6272,7 +6311,7 @@
         <v>0.87025694364945605</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -6301,7 +6340,7 @@
         <v>0.97632961040845401</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -6330,7 +6369,7 @@
         <v>0.92324433443687004</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -6359,7 +6398,7 @@
         <v>0.98977053628227596</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -6388,7 +6427,7 @@
         <v>0.84701789380994597</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -6417,7 +6456,7 @@
         <v>0.84641442002507505</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -6446,7 +6485,7 @@
         <v>0.79118517766089302</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -6475,7 +6514,7 @@
         <v>0.82502690187919703</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -6504,7 +6543,7 @@
         <v>0.77348240262238099</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -6533,7 +6572,7 @@
         <v>0.92900743066047498</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6562,7 +6601,7 @@
         <v>0.93713890259240995</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -6591,7 +6630,7 @@
         <v>0.919926498918336</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -6620,7 +6659,7 @@
         <v>0.85873278347561299</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -6649,7 +6688,7 @@
         <v>0.84731170961976998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -6678,7 +6717,7 @@
         <v>0.927636662224257</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -6707,7 +6746,7 @@
         <v>0.827158852042016</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -6736,7 +6775,7 @@
         <v>0.82800478246758602</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -6765,7 +6804,7 @@
         <v>0.85001133748654301</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -6794,7 +6833,7 @@
         <v>0.86292065677466401</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -6823,7 +6862,7 @@
         <v>0.84573169814717097</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -6852,7 +6891,7 @@
         <v>0.908544062748597</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -6881,7 +6920,7 @@
         <v>0.946156325330474</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -6910,7 +6949,7 @@
         <v>0.87632330996604701</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -6939,7 +6978,7 @@
         <v>0.81391278244520304</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -6968,7 +7007,7 @@
         <v>0.832364329709262</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -6997,7 +7036,7 @@
         <v>0.78857784371689399</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -7026,7 +7065,7 @@
         <v>0.83527905021398396</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -7055,7 +7094,7 @@
         <v>0.93131121444272602</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -7084,7 +7123,7 @@
         <v>0.87514280872572303</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -7113,7 +7152,7 @@
         <v>0.76928286271411495</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -7142,7 +7181,7 @@
         <v>0.76717896060952395</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -7171,7 +7210,7 @@
         <v>0.80904389404011001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -7200,7 +7239,7 @@
         <v>0.96707835439226097</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -7229,7 +7268,7 @@
         <v>0.84961881917299098</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -7258,7 +7297,7 @@
         <v>1.0111029459019101</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -7287,7 +7326,7 @@
         <v>0.92156400417822604</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -7316,7 +7355,7 @@
         <v>0.89490817003199397</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -7345,7 +7384,7 @@
         <v>0.89199457259097403</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -7374,7 +7413,7 @@
         <v>0.88298347070476102</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -7403,7 +7442,7 @@
         <v>0.84152465496544604</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -7432,7 +7471,7 @@
         <v>0.90640579856161596</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -7461,7 +7500,7 @@
         <v>0.88216497528057203</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -7490,7 +7529,7 @@
         <v>0.76840981969879896</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -7519,7 +7558,7 @@
         <v>0.95151587323285702</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -7548,7 +7587,7 @@
         <v>0.85432057647665105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -7577,7 +7616,7 @@
         <v>0.800963178392333</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -7606,7 +7645,7 @@
         <v>0.80816912550007303</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -7635,7 +7674,7 @@
         <v>0.941380652835764</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -7664,7 +7703,7 @@
         <v>0.81709544284578794</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -7693,7 +7732,7 @@
         <v>0.90991067127893399</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -7722,7 +7761,7 @@
         <v>0.79775900608906702</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -7751,7 +7790,7 @@
         <v>0.82003825074778103</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -7780,7 +7819,7 @@
         <v>0.89504301726675195</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -7809,7 +7848,7 @@
         <v>0.94532995391225005</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -7838,7 +7877,7 @@
         <v>0.92073574659749902</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -7867,7 +7906,7 @@
         <v>0.78899616697385599</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7896,7 +7935,7 @@
         <v>0.87037240736045995</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -7925,7 +7964,7 @@
         <v>0.79717154711490401</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -7954,7 +7993,7 @@
         <v>0.98885495678375801</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -7983,7 +8022,7 @@
         <v>0.907900611066498</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -8012,7 +8051,7 @@
         <v>1.06797421558647</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -8041,7 +8080,7 @@
         <v>0.94442332760181602</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -8070,7 +8109,7 @@
         <v>0.87226814675348097</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -8099,7 +8138,7 @@
         <v>0.882332486653849</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -8128,7 +8167,7 @@
         <v>0.93818942007490103</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -8157,7 +8196,7 @@
         <v>0.97874442582354104</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>153</v>
       </c>
@@ -8186,7 +8225,7 @@
         <v>0.98380353745818405</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>154</v>
       </c>
@@ -8215,7 +8254,7 @@
         <v>0.99455954437334404</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -8244,7 +8283,7 @@
         <v>0.90863132161986404</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -8273,7 +8312,7 @@
         <v>0.784071167507293</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -8302,7 +8341,7 @@
         <v>0.91835034665309401</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -8331,7 +8370,7 @@
         <v>0.85136153682186699</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -8360,7 +8399,7 @@
         <v>0.87921000638524205</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -8389,7 +8428,7 @@
         <v>0.93103029622210998</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -8418,7 +8457,7 @@
         <v>0.91631363794028797</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -8447,7 +8486,7 @@
         <v>0.89928836141955004</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -8476,7 +8515,7 @@
         <v>0.86409870080134399</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -8505,7 +8544,7 @@
         <v>0.93018991345167401</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -8534,7 +8573,7 @@
         <v>0.87047240894634403</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>166</v>
       </c>
@@ -8563,7 +8602,7 @@
         <v>0.91966044641607403</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -8592,7 +8631,7 @@
         <v>0.87850458428700695</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -8621,7 +8660,7 @@
         <v>0.80344650911399595</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -8650,7 +8689,7 @@
         <v>0.85752553349934302</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>170</v>
       </c>
@@ -8679,7 +8718,7 @@
         <v>0.85874262655341704</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -8708,7 +8747,7 @@
         <v>0.82544613792792398</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -8737,7 +8776,7 @@
         <v>0.77064494390239602</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -8766,7 +8805,7 @@
         <v>0.879304733155719</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -8795,7 +8834,7 @@
         <v>0.80273860097068495</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>175</v>
       </c>
@@ -8824,7 +8863,7 @@
         <v>0.79648777531091097</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -8853,7 +8892,7 @@
         <v>0.83950430443424295</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -8882,7 +8921,7 @@
         <v>0.90147714425441305</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -8911,7 +8950,7 @@
         <v>0.80522529014895905</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>179</v>
       </c>
@@ -8940,7 +8979,7 @@
         <v>0.95742105068419103</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>180</v>
       </c>
@@ -8969,7 +9008,7 @@
         <v>0.82721178244887195</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -8998,7 +9037,7 @@
         <v>0.959126716673116</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>182</v>
       </c>
@@ -9027,7 +9066,7 @@
         <v>0.81714777261936899</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>183</v>
       </c>
@@ -9056,7 +9095,7 @@
         <v>0.916757366325197</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>184</v>
       </c>
@@ -9085,7 +9124,7 @@
         <v>0.83049799093132703</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -9114,7 +9153,7 @@
         <v>0.930702135714499</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -9143,7 +9182,7 @@
         <v>0.91873234610115995</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -9172,7 +9211,7 @@
         <v>0.966156705528465</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>188</v>
       </c>
@@ -9201,7 +9240,7 @@
         <v>1.01782520528905</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -9230,7 +9269,7 @@
         <v>0.81872001796646199</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>190</v>
       </c>
@@ -9259,7 +9298,7 @@
         <v>0.93649175555351705</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -9288,7 +9327,7 @@
         <v>0.84628205205797702</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -9317,7 +9356,7 @@
         <v>0.85588399438875995</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -9346,7 +9385,7 @@
         <v>0.97134663858410397</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -9375,7 +9414,7 @@
         <v>0.82945536626249206</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>195</v>
       </c>
@@ -9404,7 +9443,7 @@
         <v>0.75237510917321104</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>196</v>
       </c>
@@ -9433,7 +9472,7 @@
         <v>0.92220230603321895</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -9462,7 +9501,7 @@
         <v>0.962737971933182</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -9491,7 +9530,7 @@
         <v>0.96977644019964104</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -9520,7 +9559,7 @@
         <v>0.93979932280703904</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -9549,7 +9588,7 @@
         <v>0.93229017970597206</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -9578,7 +9617,7 @@
         <v>0.97333931757450898</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -9607,7 +9646,7 @@
         <v>0.850100500666502</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -9636,7 +9675,7 @@
         <v>0.86465760851920404</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -9665,7 +9704,7 @@
         <v>0.79515693648262697</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>205</v>
       </c>
@@ -9694,7 +9733,7 @@
         <v>0.83928026867773897</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -9723,7 +9762,7 @@
         <v>0.78374613056735198</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>207</v>
       </c>
@@ -9752,7 +9791,7 @@
         <v>0.78934250574700204</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -9781,7 +9820,7 @@
         <v>0.80453163846026199</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -9810,7 +9849,7 @@
         <v>0.88659276893219596</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>210</v>
       </c>
@@ -9839,7 +9878,7 @@
         <v>0.84009744976954703</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>211</v>
       </c>
@@ -9868,7 +9907,7 @@
         <v>0.84430031320255305</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>212</v>
       </c>
@@ -9897,7 +9936,7 @@
         <v>0.94192263133445697</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -9926,7 +9965,7 @@
         <v>0.91186398267082802</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -9955,7 +9994,7 @@
         <v>0.85851565817034403</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>215</v>
       </c>
@@ -9984,7 +10023,7 @@
         <v>0.81850088707012802</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>216</v>
       </c>
@@ -10013,7 +10052,7 @@
         <v>0.94804232490148999</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>217</v>
       </c>
@@ -10042,7 +10081,7 @@
         <v>0.84568686382633995</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>218</v>
       </c>
@@ -10071,7 +10110,7 @@
         <v>0.927525627257339</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>219</v>
       </c>
@@ -10100,7 +10139,7 @@
         <v>0.912693634184915</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -10129,7 +10168,7 @@
         <v>0.83625235128205</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>221</v>
       </c>
@@ -10158,7 +10197,7 @@
         <v>0.767557086367051</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>222</v>
       </c>
@@ -10187,7 +10226,7 @@
         <v>0.81343954979729305</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>223</v>
       </c>
@@ -10216,7 +10255,7 @@
         <v>0.82677961908852304</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>224</v>
       </c>
@@ -10245,7 +10284,7 @@
         <v>0.76182131192532798</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>225</v>
       </c>
@@ -10274,7 +10313,7 @@
         <v>0.93472226973626205</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -10303,7 +10342,7 @@
         <v>0.96426129620464096</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>227</v>
       </c>
@@ -10332,7 +10371,7 @@
         <v>0.95185565511371795</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>228</v>
       </c>
@@ -10361,7 +10400,7 @@
         <v>0.92578925588085503</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>229</v>
       </c>
@@ -10390,7 +10429,7 @@
         <v>0.85396403428256196</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -10419,7 +10458,7 @@
         <v>0.91756168049881104</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>231</v>
       </c>
@@ -10448,7 +10487,7 @@
         <v>0.88344597329961605</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>232</v>
       </c>
@@ -10477,7 +10516,7 @@
         <v>0.75579638106681701</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>233</v>
       </c>
@@ -10506,7 +10545,7 @@
         <v>0.83570031138916501</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>234</v>
       </c>
@@ -10535,7 +10574,7 @@
         <v>0.83122874601907903</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -10564,7 +10603,7 @@
         <v>0.958721624753615</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>236</v>
       </c>
@@ -10593,7 +10632,7 @@
         <v>0.88430731859863798</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>237</v>
       </c>
@@ -10622,7 +10661,7 @@
         <v>0.94233458209094201</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>238</v>
       </c>
@@ -10651,7 +10690,7 @@
         <v>0.86511509656401397</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -10680,7 +10719,7 @@
         <v>0.73899589532497101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>240</v>
       </c>
@@ -10709,7 +10748,7 @@
         <v>0.77329295186003999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>241</v>
       </c>
@@ -10738,7 +10777,7 @@
         <v>0.87274081821086502</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>242</v>
       </c>
@@ -10767,7 +10806,7 @@
         <v>0.82562580859691104</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>243</v>
       </c>
@@ -10796,7 +10835,7 @@
         <v>0.84130422273370098</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>244</v>
       </c>
@@ -10825,7 +10864,7 @@
         <v>0.80795757011848501</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -10854,7 +10893,7 @@
         <v>0.77220635841060203</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -10883,7 +10922,7 @@
         <v>0.97012929128932701</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>247</v>
       </c>
@@ -10912,7 +10951,7 @@
         <v>0.88757042197901903</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>248</v>
       </c>
@@ -10941,7 +10980,7 @@
         <v>0.96732094026564197</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -10970,7 +11009,7 @@
         <v>0.978099072404501</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>250</v>
       </c>
@@ -10999,7 +11038,7 @@
         <v>0.907441322770423</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>251</v>
       </c>
@@ -11028,7 +11067,7 @@
         <v>0.84633026917911902</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>252</v>
       </c>
@@ -11057,7 +11096,7 @@
         <v>0.89421544717553203</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>253</v>
       </c>
@@ -11086,7 +11125,7 @@
         <v>0.73673037179147105</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>254</v>
       </c>
@@ -11115,7 +11154,7 @@
         <v>0.83561155142806498</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>255</v>
       </c>
@@ -11144,7 +11183,7 @@
         <v>0.85896108907669</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>256</v>
       </c>
@@ -11173,7 +11212,7 @@
         <v>0.793158561592335</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>257</v>
       </c>
@@ -11202,7 +11241,7 @@
         <v>0.80073385349759996</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>258</v>
       </c>
@@ -11231,7 +11270,7 @@
         <v>0.91486710591589004</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>259</v>
       </c>
@@ -11260,7 +11299,7 @@
         <v>0.91325323895822397</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>260</v>
       </c>
@@ -11289,7 +11328,7 @@
         <v>0.92744767894166702</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>261</v>
       </c>
@@ -11318,7 +11357,7 @@
         <v>0.92967601186593096</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -11347,7 +11386,7 @@
         <v>0.93747577563045503</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>263</v>
       </c>
@@ -11376,7 +11415,7 @@
         <v>0.78202591469104099</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -11405,7 +11444,7 @@
         <v>0.78002295676144295</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>265</v>
       </c>
@@ -11434,7 +11473,7 @@
         <v>0.83413649389936995</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -11463,7 +11502,7 @@
         <v>0.84534296405743004</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>267</v>
       </c>
@@ -11492,7 +11531,7 @@
         <v>0.89559810562192499</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -11521,7 +11560,7 @@
         <v>0.89605550998318995</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>269</v>
       </c>
@@ -11550,7 +11589,7 @@
         <v>0.94658479931654704</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -11579,7 +11618,7 @@
         <v>0.91618303208996499</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>271</v>
       </c>
@@ -11608,7 +11647,7 @@
         <v>1.01921669423199</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>272</v>
       </c>
@@ -11637,7 +11676,7 @@
         <v>0.91285561772678003</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>273</v>
       </c>
@@ -11666,7 +11705,7 @@
         <v>0.95504524287192105</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>274</v>
       </c>
@@ -11695,7 +11734,7 @@
         <v>0.91210719830237097</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>275</v>
       </c>
@@ -11724,7 +11763,7 @@
         <v>0.96463028557583397</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -11753,7 +11792,7 @@
         <v>0.875184614575784</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>277</v>
       </c>
@@ -11782,7 +11821,7 @@
         <v>0.92201327295496804</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>278</v>
       </c>
@@ -11811,7 +11850,7 @@
         <v>0.79074692252214895</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>279</v>
       </c>
@@ -11840,7 +11879,7 @@
         <v>0.89670905097167097</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>281</v>
       </c>
@@ -11869,7 +11908,7 @@
         <v>1.04396919167252</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -11898,7 +11937,7 @@
         <v>0.93345760231435404</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>283</v>
       </c>
@@ -11927,7 +11966,7 @@
         <v>1.0437894964143499</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>284</v>
       </c>
@@ -11956,7 +11995,7 @@
         <v>0.86350069788548001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>285</v>
       </c>
@@ -11985,7 +12024,7 @@
         <v>0.77949488739080997</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>286</v>
       </c>
@@ -12014,7 +12053,7 @@
         <v>0.89107262269152199</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>287</v>
       </c>
@@ -12043,7 +12082,7 @@
         <v>0.84016984572777798</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>288</v>
       </c>
@@ -12072,7 +12111,7 @@
         <v>0.93704669920998895</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -12101,7 +12140,7 @@
         <v>0.95886831964913199</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>290</v>
       </c>
@@ -12130,7 +12169,7 @@
         <v>1.02012153073421</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>291</v>
       </c>
@@ -12159,7 +12198,7 @@
         <v>0.86263518761671099</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>292</v>
       </c>
@@ -12188,7 +12227,7 @@
         <v>0.90370234376275704</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -12217,7 +12256,7 @@
         <v>0.93248950772023798</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>294</v>
       </c>
@@ -12246,7 +12285,7 @@
         <v>0.87616949639000197</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>295</v>
       </c>
@@ -12275,7 +12314,7 @@
         <v>0.81690018503583595</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -12304,7 +12343,7 @@
         <v>0.939493800606226</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -12333,7 +12372,7 @@
         <v>0.86783110053716805</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>298</v>
       </c>
@@ -12362,7 +12401,7 @@
         <v>0.83134616370083703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>299</v>
       </c>
@@ -12391,7 +12430,7 @@
         <v>1.0372145223339799</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>300</v>
       </c>
@@ -12420,7 +12459,7 @@
         <v>0.99402092848916301</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>301</v>
       </c>
@@ -12449,7 +12488,7 @@
         <v>0.86140918082149698</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>302</v>
       </c>
@@ -12478,7 +12517,7 @@
         <v>0.83875471057010798</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>303</v>
       </c>
@@ -12507,7 +12546,7 @@
         <v>0.852079809489933</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>304</v>
       </c>
@@ -12536,7 +12575,7 @@
         <v>0.91223203675832998</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>305</v>
       </c>
@@ -12565,7 +12604,7 @@
         <v>0.90898809702912797</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>306</v>
       </c>
@@ -12594,7 +12633,7 @@
         <v>0.90612272418787299</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>307</v>
       </c>
@@ -12623,7 +12662,7 @@
         <v>0.90749243458221396</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>308</v>
       </c>
@@ -12652,7 +12691,7 @@
         <v>0.79178646055058899</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>309</v>
       </c>
@@ -12681,7 +12720,7 @@
         <v>0.89230167752898903</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>310</v>
       </c>
@@ -12710,7 +12749,7 @@
         <v>0.92446276253457804</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>311</v>
       </c>
@@ -12739,7 +12778,7 @@
         <v>0.82415630161612796</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>312</v>
       </c>
@@ -12768,7 +12807,7 @@
         <v>0.95896333460141303</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>313</v>
       </c>
@@ -12797,7 +12836,7 @@
         <v>1.0054717898554</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>314</v>
       </c>
@@ -12826,7 +12865,7 @@
         <v>0.96419731550015897</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>315</v>
       </c>
@@ -12855,7 +12894,7 @@
         <v>0.89924484289728801</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>316</v>
       </c>
@@ -12884,7 +12923,7 @@
         <v>0.93759007644369297</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>317</v>
       </c>
@@ -12913,7 +12952,7 @@
         <v>0.94754222522925202</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>318</v>
       </c>
@@ -12942,7 +12981,7 @@
         <v>0.92309377511086899</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>319</v>
       </c>
@@ -12971,7 +13010,7 @@
         <v>0.85174648480822102</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>320</v>
       </c>
@@ -13000,7 +13039,7 @@
         <v>0.97958406412350696</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>321</v>
       </c>
@@ -13029,7 +13068,7 @@
         <v>0.99501429540516495</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>322</v>
       </c>
@@ -13058,7 +13097,7 @@
         <v>0.88793154975551103</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>323</v>
       </c>
@@ -13087,7 +13126,7 @@
         <v>0.92554720704284099</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>324</v>
       </c>
@@ -13116,7 +13155,7 @@
         <v>0.79073918149950395</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>325</v>
       </c>
@@ -13145,7 +13184,7 @@
         <v>0.80804908045483603</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>326</v>
       </c>
@@ -13174,7 +13213,7 @@
         <v>0.81856834892927599</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>327</v>
       </c>
@@ -13203,7 +13242,7 @@
         <v>0.90096580812757798</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>328</v>
       </c>
@@ -13232,7 +13271,7 @@
         <v>1.03833431676378</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>329</v>
       </c>
@@ -13261,7 +13300,7 @@
         <v>1.06173969574204</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>330</v>
       </c>
@@ -13290,7 +13329,7 @@
         <v>0.92805540641016304</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>331</v>
       </c>
@@ -13319,7 +13358,7 @@
         <v>1.02072786160693</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>332</v>
       </c>
@@ -13348,7 +13387,7 @@
         <v>0.91102236103372902</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>333</v>
       </c>
@@ -13377,7 +13416,7 @@
         <v>0.90765731809663097</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>334</v>
       </c>
@@ -13406,7 +13445,7 @@
         <v>1.0156840984661399</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>335</v>
       </c>
@@ -13435,7 +13474,7 @@
         <v>0.90135872774981196</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>336</v>
       </c>
@@ -13464,7 +13503,7 @@
         <v>0.90209851756814297</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>337</v>
       </c>
@@ -13493,7 +13532,7 @@
         <v>0.92752043391541406</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>338</v>
       </c>
@@ -13522,7 +13561,7 @@
         <v>0.92928269570829503</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>339</v>
       </c>
@@ -13551,7 +13590,7 @@
         <v>0.966127519913349</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>340</v>
       </c>
@@ -13580,7 +13619,7 @@
         <v>0.85663149644162895</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>341</v>
       </c>
@@ -13609,7 +13648,7 @@
         <v>0.94123590878316499</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>342</v>
       </c>
@@ -13638,7 +13677,7 @@
         <v>0.89416588433447197</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>343</v>
       </c>
@@ -13667,7 +13706,7 @@
         <v>0.92595198302265802</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>344</v>
       </c>
@@ -13696,7 +13735,7 @@
         <v>0.86112427737507802</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>345</v>
       </c>
@@ -13725,7 +13764,7 @@
         <v>0.81871033453637898</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>346</v>
       </c>
@@ -13754,7 +13793,7 @@
         <v>0.85480424048596304</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>347</v>
       </c>
@@ -13783,7 +13822,7 @@
         <v>0.75677770226858698</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>348</v>
       </c>
@@ -13812,7 +13851,7 @@
         <v>0.864022950007865</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>349</v>
       </c>
@@ -13841,7 +13880,7 @@
         <v>0.87062434830191204</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>350</v>
       </c>
@@ -13870,7 +13909,7 @@
         <v>0.89035603309810596</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>351</v>
       </c>
@@ -13899,7 +13938,7 @@
         <v>0.92152965591158298</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>352</v>
       </c>
@@ -13928,7 +13967,7 @@
         <v>0.76209507742949301</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>353</v>
       </c>
@@ -13957,7 +13996,7 @@
         <v>0.82448619477302099</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>354</v>
       </c>
@@ -13986,7 +14025,7 @@
         <v>0.81209309233664795</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>355</v>
       </c>
@@ -14015,7 +14054,7 @@
         <v>0.86866425201931297</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>356</v>
       </c>
@@ -14044,7 +14083,7 @@
         <v>0.93699629190746603</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>357</v>
       </c>
@@ -14073,7 +14112,7 @@
         <v>0.93443347553323497</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>358</v>
       </c>
@@ -14102,7 +14141,7 @@
         <v>0.84705296907998895</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>359</v>
       </c>
@@ -14131,7 +14170,7 @@
         <v>0.91157402550880695</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>360</v>
       </c>
@@ -14160,7 +14199,7 @@
         <v>0.86373099832639499</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>361</v>
       </c>
@@ -14189,7 +14228,7 @@
         <v>0.87055867294624001</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>362</v>
       </c>
@@ -14218,7 +14257,7 @@
         <v>1.0139287397350001</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>363</v>
       </c>
@@ -14247,7 +14286,7 @@
         <v>0.84121320129285704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>364</v>
       </c>
@@ -14276,7 +14315,7 @@
         <v>0.889631362030603</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>365</v>
       </c>
@@ -14305,7 +14344,7 @@
         <v>0.84104880266228998</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>366</v>
       </c>
@@ -14334,7 +14373,7 @@
         <v>0.91775368013248804</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>367</v>
       </c>
@@ -14363,7 +14402,7 @@
         <v>0.93799058157313597</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>368</v>
       </c>
@@ -14392,7 +14431,7 @@
         <v>0.89707034237748995</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>369</v>
       </c>
@@ -14421,7 +14460,7 @@
         <v>0.78751792601258597</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>370</v>
       </c>
@@ -14450,7 +14489,7 @@
         <v>0.92392108121985805</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>371</v>
       </c>
@@ -14479,7 +14518,7 @@
         <v>0.84216078562022101</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>372</v>
       </c>
@@ -14508,7 +14547,7 @@
         <v>0.88766146913187305</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>373</v>
       </c>
@@ -14537,7 +14576,7 @@
         <v>0.89222465779951998</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>374</v>
       </c>
@@ -14566,7 +14605,7 @@
         <v>0.865504878804641</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>375</v>
       </c>
@@ -14595,7 +14634,7 @@
         <v>0.90276462683794501</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>376</v>
       </c>
@@ -14624,7 +14663,7 @@
         <v>0.92296876545861095</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>377</v>
       </c>
@@ -14653,7 +14692,7 @@
         <v>0.83884800762800105</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>378</v>
       </c>
@@ -14682,7 +14721,7 @@
         <v>0.91622016845112597</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>379</v>
       </c>
@@ -14711,7 +14750,7 @@
         <v>0.95397048257516304</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>380</v>
       </c>
@@ -14740,7 +14779,7 @@
         <v>0.98154661876399596</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>381</v>
       </c>
@@ -14769,7 +14808,7 @@
         <v>0.908136266626838</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>382</v>
       </c>
@@ -14798,7 +14837,7 @@
         <v>0.95830465108263596</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>383</v>
       </c>
@@ -14827,7 +14866,7 @@
         <v>0.84106688205122804</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>384</v>
       </c>
@@ -14856,7 +14895,7 @@
         <v>0.88524812370005801</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>385</v>
       </c>
@@ -14885,7 +14924,7 @@
         <v>0.90795866758741595</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>386</v>
       </c>
@@ -14914,7 +14953,7 @@
         <v>0.87569213603591001</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>387</v>
       </c>
@@ -14943,7 +14982,7 @@
         <v>0.89522368017948895</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>388</v>
       </c>
@@ -14972,7 +15011,7 @@
         <v>0.90902115261112204</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>389</v>
       </c>
@@ -15001,7 +15040,7 @@
         <v>0.87216083813160505</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>390</v>
       </c>
@@ -15030,7 +15069,7 @@
         <v>0.91052420070881901</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>391</v>
       </c>
@@ -15059,7 +15098,7 @@
         <v>0.83890823999713204</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>392</v>
       </c>
@@ -15088,7 +15127,7 @@
         <v>0.89706260549518402</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>393</v>
       </c>
@@ -15117,7 +15156,7 @@
         <v>0.86715410961991901</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>394</v>
       </c>
@@ -15146,7 +15185,7 @@
         <v>0.953384971523762</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>395</v>
       </c>
@@ -15175,7 +15214,7 @@
         <v>1.02670856092384</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>396</v>
       </c>
@@ -15204,7 +15243,7 @@
         <v>0.889619207814348</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>397</v>
       </c>
@@ -15233,7 +15272,7 @@
         <v>0.87480349361419996</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>398</v>
       </c>
@@ -15262,7 +15301,7 @@
         <v>0.84167744619302698</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>399</v>
       </c>
@@ -15291,7 +15330,7 @@
         <v>0.77197073241189895</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>400</v>
       </c>
@@ -15320,7 +15359,7 @@
         <v>0.92073969445833703</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>401</v>
       </c>
@@ -15349,7 +15388,7 @@
         <v>0.86637277607699803</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>402</v>
       </c>
@@ -15378,7 +15417,7 @@
         <v>0.77759001883585799</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>403</v>
       </c>
@@ -15407,7 +15446,7 @@
         <v>0.85639063202392196</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>404</v>
       </c>
@@ -15436,7 +15475,7 @@
         <v>0.96709733200369097</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>405</v>
       </c>
@@ -15465,7 +15504,7 @@
         <v>0.92292552896011404</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>406</v>
       </c>
@@ -15494,7 +15533,7 @@
         <v>0.85692804907015396</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>407</v>
       </c>
@@ -15523,7 +15562,7 @@
         <v>0.91466348046175106</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>408</v>
       </c>
@@ -15552,7 +15591,7 @@
         <v>0.91388831867298803</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>409</v>
       </c>
@@ -15581,7 +15620,7 @@
         <v>0.87751343228072398</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -15610,7 +15649,7 @@
         <v>0.90658554559261995</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>411</v>
       </c>
@@ -15639,7 +15678,7 @@
         <v>0.85920991463249496</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>412</v>
       </c>
@@ -15668,7 +15707,7 @@
         <v>0.813208650897708</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>413</v>
       </c>
@@ -15697,7 +15736,7 @@
         <v>0.89065366327756501</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>414</v>
       </c>
@@ -15726,7 +15765,7 @@
         <v>0.77310355563323396</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>415</v>
       </c>
@@ -15755,7 +15794,7 @@
         <v>0.782860476418206</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>416</v>
       </c>
@@ -15784,7 +15823,7 @@
         <v>0.93020411814986304</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>417</v>
       </c>
@@ -15813,7 +15852,7 @@
         <v>1.0143455620086701</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>418</v>
       </c>
@@ -15842,7 +15881,7 @@
         <v>0.84289156477124905</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>419</v>
       </c>
@@ -15871,7 +15910,7 @@
         <v>0.88633419873920505</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>420</v>
       </c>
@@ -15900,7 +15939,7 @@
         <v>0.95387658144637599</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>421</v>
       </c>
@@ -15929,7 +15968,7 @@
         <v>0.73914642190066304</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>422</v>
       </c>
@@ -15958,7 +15997,7 @@
         <v>0.87910826368821604</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>423</v>
       </c>
@@ -15987,7 +16026,7 @@
         <v>0.986174486983183</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>424</v>
       </c>
@@ -16016,7 +16055,7 @@
         <v>0.83627578037601402</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>425</v>
       </c>
@@ -16045,7 +16084,7 @@
         <v>0.90340990072810001</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>426</v>
       </c>
@@ -16074,7 +16113,7 @@
         <v>0.90347913534556801</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>427</v>
       </c>
@@ -16103,7 +16142,7 @@
         <v>0.79909367683430799</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>428</v>
       </c>
@@ -16132,7 +16171,7 @@
         <v>0.79314715728121199</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>429</v>
       </c>
@@ -16161,7 +16200,7 @@
         <v>0.75252942569625603</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>430</v>
       </c>
@@ -16190,7 +16229,7 @@
         <v>0.84266777849435603</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>431</v>
       </c>
@@ -16219,7 +16258,7 @@
         <v>0.94683070694555005</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>432</v>
       </c>
@@ -16248,7 +16287,7 @@
         <v>0.95963932752829795</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>433</v>
       </c>
@@ -16277,7 +16316,7 @@
         <v>0.96013912033924098</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>434</v>
       </c>
@@ -16306,7 +16345,7 @@
         <v>0.77139385302822305</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>435</v>
       </c>
@@ -16335,7 +16374,7 @@
         <v>0.90585914809897605</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>436</v>
       </c>
@@ -16364,7 +16403,7 @@
         <v>1.01373939782026</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>437</v>
       </c>
@@ -16393,7 +16432,7 @@
         <v>0.85062292575081799</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>438</v>
       </c>
@@ -16422,7 +16461,7 @@
         <v>0.91690548830744101</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>439</v>
       </c>
@@ -16451,7 +16490,7 @@
         <v>0.90748953904503404</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>440</v>
       </c>
@@ -16480,7 +16519,7 @@
         <v>0.93850594611757798</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>441</v>
       </c>
@@ -16509,7 +16548,7 @@
         <v>0.92491726566584997</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>442</v>
       </c>
@@ -16538,7 +16577,7 @@
         <v>0.84702786086805903</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>443</v>
       </c>
@@ -16567,7 +16606,7 @@
         <v>0.73708072577634398</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>444</v>
       </c>
@@ -16596,7 +16635,7 @@
         <v>0.92263681504811601</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>445</v>
       </c>
@@ -16625,7 +16664,7 @@
         <v>0.89531195982106904</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>446</v>
       </c>
@@ -16654,7 +16693,7 @@
         <v>0.956917482802635</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>447</v>
       </c>
@@ -16683,7 +16722,7 @@
         <v>0.90087896125882805</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>448</v>
       </c>
@@ -16712,7 +16751,7 @@
         <v>0.89239704045798895</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>449</v>
       </c>
@@ -16741,7 +16780,7 @@
         <v>0.84383849819178203</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -16770,7 +16809,7 @@
         <v>0.90682365819488198</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>451</v>
       </c>
@@ -16799,7 +16838,7 @@
         <v>0.90833591812463599</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>452</v>
       </c>
@@ -16828,7 +16867,7 @@
         <v>0.97404445471576495</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>453</v>
       </c>
@@ -16857,7 +16896,7 @@
         <v>0.92864268850188403</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>454</v>
       </c>
@@ -16886,7 +16925,7 @@
         <v>0.76598445657759595</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>455</v>
       </c>
@@ -16915,7 +16954,7 @@
         <v>0.896851695954615</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>456</v>
       </c>
@@ -16944,7 +16983,7 @@
         <v>0.99719083536675102</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>457</v>
       </c>
@@ -16973,7 +17012,7 @@
         <v>0.80326891262678202</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>458</v>
       </c>
@@ -17002,7 +17041,7 @@
         <v>0.84139726554830596</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -17031,7 +17070,7 @@
         <v>0.98982981269571202</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>460</v>
       </c>
@@ -17060,7 +17099,7 @@
         <v>0.93108545203446402</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>461</v>
       </c>
@@ -17089,7 +17128,7 @@
         <v>0.99270851639630098</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>462</v>
       </c>
@@ -17118,7 +17157,7 @@
         <v>1.0327983027419401</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>463</v>
       </c>
@@ -17147,7 +17186,7 @@
         <v>0.94472737664541095</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>464</v>
       </c>
@@ -17176,7 +17215,7 @@
         <v>0.92315271339153204</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>465</v>
       </c>
@@ -17205,7 +17244,7 @@
         <v>0.85989646692660804</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>466</v>
       </c>
@@ -17234,7 +17273,7 @@
         <v>0.90719032102484098</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>467</v>
       </c>
@@ -17263,7 +17302,7 @@
         <v>0.73162701619742998</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>468</v>
       </c>
@@ -17292,7 +17331,7 @@
         <v>0.871303405460222</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>469</v>
       </c>
@@ -17321,7 +17360,7 @@
         <v>0.97880481447586098</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>470</v>
       </c>
@@ -17350,7 +17389,7 @@
         <v>1.00576354227722</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>471</v>
       </c>
@@ -17379,7 +17418,7 @@
         <v>0.88724632493462796</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>472</v>
       </c>
@@ -17408,7 +17447,7 @@
         <v>0.88278565284697097</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>473</v>
       </c>
@@ -17437,7 +17476,7 @@
         <v>0.98099412637461603</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>474</v>
       </c>
@@ -17466,7 +17505,7 @@
         <v>0.89526537391467598</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>475</v>
       </c>
@@ -17495,7 +17534,7 @@
         <v>0.86641154963651901</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>476</v>
       </c>
@@ -17524,7 +17563,7 @@
         <v>0.87888177131803402</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>477</v>
       </c>
@@ -17553,7 +17592,7 @@
         <v>0.85640169721116999</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>478</v>
       </c>
@@ -17582,7 +17621,7 @@
         <v>0.81539641436051402</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>479</v>
       </c>
@@ -17611,7 +17650,7 @@
         <v>0.85100444410679998</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>480</v>
       </c>
@@ -17640,7 +17679,7 @@
         <v>0.84153407154460702</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>481</v>
       </c>
@@ -17669,7 +17708,7 @@
         <v>0.864908293383296</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>482</v>
       </c>
@@ -17698,7 +17737,7 @@
         <v>0.81916933604443498</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>483</v>
       </c>
@@ -17727,7 +17766,7 @@
         <v>0.89713302068731904</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>484</v>
       </c>
@@ -17756,7 +17795,7 @@
         <v>0.80183799578742498</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>485</v>
       </c>
@@ -17785,7 +17824,7 @@
         <v>0.91388169534339103</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>486</v>
       </c>
@@ -17814,7 +17853,7 @@
         <v>0.88063915930912795</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>487</v>
       </c>
@@ -17843,7 +17882,7 @@
         <v>0.921535099198593</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>488</v>
       </c>
@@ -17872,7 +17911,7 @@
         <v>0.92963875326159595</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>489</v>
       </c>
@@ -17901,7 +17940,7 @@
         <v>0.93198798326093302</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>490</v>
       </c>
@@ -17930,7 +17969,7 @@
         <v>0.87679509063959704</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>491</v>
       </c>
@@ -17959,7 +17998,7 @@
         <v>0.716862488101907</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>492</v>
       </c>
@@ -17988,7 +18027,7 @@
         <v>0.77564482172728799</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>493</v>
       </c>
@@ -18017,7 +18056,7 @@
         <v>0.83566621332500302</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>494</v>
       </c>
@@ -18046,7 +18085,7 @@
         <v>1.0245119458923899</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>495</v>
       </c>
@@ -18075,7 +18114,7 @@
         <v>0.94736547655636105</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>496</v>
       </c>
@@ -18104,7 +18143,7 @@
         <v>0.88601403485076502</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>497</v>
       </c>
@@ -18133,7 +18172,7 @@
         <v>0.81013243689884296</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>498</v>
       </c>
@@ -18162,7 +18201,7 @@
         <v>0.79995674802496997</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>499</v>
       </c>
@@ -18191,7 +18230,7 @@
         <v>0.81677706890561796</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>500</v>
       </c>
@@ -18220,7 +18259,7 @@
         <v>0.92601788694852505</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>501</v>
       </c>
@@ -18249,7 +18288,7 @@
         <v>1.0077498773948601</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>502</v>
       </c>
@@ -18278,7 +18317,7 @@
         <v>0.91845470299816501</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>503</v>
       </c>
@@ -18307,7 +18346,7 @@
         <v>0.88244940672000105</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>504</v>
       </c>
@@ -18336,7 +18375,7 @@
         <v>0.92496517735415595</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>505</v>
       </c>
@@ -18365,7 +18404,7 @@
         <v>0.87237874596126896</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>506</v>
       </c>
@@ -18394,7 +18433,7 @@
         <v>0.89290210484256105</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>507</v>
       </c>
@@ -18423,7 +18462,7 @@
         <v>0.77926585228772904</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>508</v>
       </c>
@@ -18452,7 +18491,7 @@
         <v>0.96768382852571599</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>509</v>
       </c>
@@ -18481,7 +18520,7 @@
         <v>0.816595810245761</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>510</v>
       </c>
@@ -18510,7 +18549,7 @@
         <v>0.71183510232862102</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>511</v>
       </c>
@@ -18539,7 +18578,7 @@
         <v>0.86380226429451501</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>512</v>
       </c>
@@ -18568,7 +18607,7 @@
         <v>0.95608227113954103</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>513</v>
       </c>
@@ -18597,7 +18636,7 @@
         <v>1.00826854735486</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>514</v>
       </c>
@@ -18626,7 +18665,7 @@
         <v>1.07410961256117</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>515</v>
       </c>
@@ -18655,7 +18694,7 @@
         <v>0.96067764195732497</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>516</v>
       </c>
@@ -18684,7 +18723,7 @@
         <v>0.99737993493893995</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>517</v>
       </c>
@@ -18713,7 +18752,7 @@
         <v>0.85739319423735105</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>518</v>
       </c>
@@ -18742,7 +18781,7 @@
         <v>0.96230807389283202</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>519</v>
       </c>
@@ -18771,7 +18810,7 @@
         <v>0.83818935156403096</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>520</v>
       </c>
@@ -18800,7 +18839,7 @@
         <v>0.92858166377219697</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>521</v>
       </c>
@@ -18829,7 +18868,7 @@
         <v>0.97099039581777002</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>522</v>
       </c>
@@ -18858,7 +18897,7 @@
         <v>0.76293513087412701</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>523</v>
       </c>
@@ -18887,7 +18926,7 @@
         <v>0.874341381088379</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>524</v>
       </c>
@@ -18916,7 +18955,7 @@
         <v>0.93316560094986001</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>525</v>
       </c>
@@ -18945,7 +18984,7 @@
         <v>0.87889286058649696</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>526</v>
       </c>
@@ -18974,7 +19013,7 @@
         <v>0.85379985337970599</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>527</v>
       </c>
@@ -19003,7 +19042,7 @@
         <v>0.78724858973090395</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>528</v>
       </c>
@@ -19032,7 +19071,7 @@
         <v>0.78570174946490901</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>529</v>
       </c>
@@ -19061,7 +19100,7 @@
         <v>0.79023097952355104</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>530</v>
       </c>
@@ -19090,7 +19129,7 @@
         <v>0.75787702317834804</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>531</v>
       </c>
@@ -19119,7 +19158,7 @@
         <v>0.98993794900732901</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>532</v>
       </c>
@@ -19148,7 +19187,7 @@
         <v>0.83839664252919999</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>533</v>
       </c>
@@ -19177,7 +19216,7 @@
         <v>0.91618905560726305</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>534</v>
       </c>
@@ -19206,7 +19245,7 @@
         <v>1.0038210333909201</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>535</v>
       </c>
@@ -19235,7 +19274,7 @@
         <v>0.90564411871708705</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>536</v>
       </c>
@@ -19264,7 +19303,7 @@
         <v>0.89062591020009396</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>537</v>
       </c>
@@ -19293,7 +19332,7 @@
         <v>0.80262379231660896</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>538</v>
       </c>
@@ -19322,7 +19361,7 @@
         <v>0.85389054610856496</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>539</v>
       </c>
@@ -19351,7 +19390,7 @@
         <v>0.84615281371477602</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>540</v>
       </c>
@@ -19380,7 +19419,7 @@
         <v>0.87145675225396202</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>541</v>
       </c>
@@ -19409,7 +19448,7 @@
         <v>0.92517783441060497</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>542</v>
       </c>
@@ -19438,7 +19477,7 @@
         <v>1.0443962189137701</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>543</v>
       </c>
@@ -19467,7 +19506,7 @@
         <v>0.99023047961895305</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>544</v>
       </c>
@@ -19496,7 +19535,7 @@
         <v>0.82986831438367403</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>545</v>
       </c>
@@ -19525,7 +19564,7 @@
         <v>0.776312006010768</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>546</v>
       </c>
@@ -19554,7 +19593,7 @@
         <v>1.05781453069029</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -19583,7 +19622,7 @@
         <v>0.98956948531261102</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>550</v>
       </c>
@@ -19612,7 +19651,7 @@
         <v>0.97126125535645902</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>551</v>
       </c>
@@ -19641,7 +19680,7 @@
         <v>0.87784353966864304</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>552</v>
       </c>
@@ -19670,7 +19709,7 @@
         <v>0.91110521185243099</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>553</v>
       </c>
@@ -19699,7 +19738,7 @@
         <v>0.95747660265539203</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>554</v>
       </c>
@@ -19728,7 +19767,7 @@
         <v>0.82755484364165</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>555</v>
       </c>
@@ -19757,7 +19796,7 @@
         <v>0.85273249279706698</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>556</v>
       </c>
@@ -19786,7 +19825,7 @@
         <v>0.87374477131015205</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>557</v>
       </c>
@@ -19815,7 +19854,7 @@
         <v>1.0984376669526801</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>558</v>
       </c>
@@ -19844,7 +19883,7 @@
         <v>1.0748382612273299</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>559</v>
       </c>
@@ -19873,7 +19912,7 @@
         <v>0.945838170228399</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>560</v>
       </c>
@@ -19902,7 +19941,7 @@
         <v>0.95179377712936997</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>561</v>
       </c>
@@ -19931,7 +19970,7 @@
         <v>0.89642921449607504</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>562</v>
       </c>
@@ -19960,7 +19999,7 @@
         <v>0.90138178771876598</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>563</v>
       </c>
@@ -19989,7 +20028,7 @@
         <v>0.97139603553665699</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>564</v>
       </c>
@@ -20018,7 +20057,7 @@
         <v>0.987721561452784</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>565</v>
       </c>
@@ -20047,7 +20086,7 @@
         <v>0.94350750970943897</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>566</v>
       </c>
@@ -20076,7 +20115,7 @@
         <v>1.03110147029852</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>567</v>
       </c>
@@ -20105,7 +20144,7 @@
         <v>0.89890382685855197</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>568</v>
       </c>
@@ -20134,7 +20173,7 @@
         <v>0.96075938523453697</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>569</v>
       </c>
@@ -20163,7 +20202,7 @@
         <v>0.96590603950392395</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>570</v>
       </c>
@@ -20192,7 +20231,7 @@
         <v>0.92148591913681499</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>571</v>
       </c>
@@ -20221,7 +20260,7 @@
         <v>0.877523219714757</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>572</v>
       </c>
@@ -20250,7 +20289,7 @@
         <v>0.84730000622380797</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>573</v>
       </c>
@@ -20279,7 +20318,7 @@
         <v>0.91800321638605598</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>574</v>
       </c>
@@ -20308,7 +20347,7 @@
         <v>0.92922433707970298</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>575</v>
       </c>
@@ -20337,7 +20376,7 @@
         <v>0.89774101411350704</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>576</v>
       </c>
@@ -20366,7 +20405,7 @@
         <v>0.94882708487630796</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>577</v>
       </c>
@@ -20395,7 +20434,7 @@
         <v>0.92911522536787094</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>578</v>
       </c>
@@ -20424,7 +20463,7 @@
         <v>0.86125647983573606</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>579</v>
       </c>
@@ -20453,7 +20492,7 @@
         <v>1.05460842161556</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>580</v>
       </c>
@@ -20482,7 +20521,7 @@
         <v>1.12924383159241</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>581</v>
       </c>
@@ -20511,7 +20550,7 @@
         <v>0.94778178467513896</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>582</v>
       </c>
@@ -20540,7 +20579,7 @@
         <v>0.93599596395491902</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>583</v>
       </c>
@@ -20569,7 +20608,7 @@
         <v>0.96303104547714202</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>584</v>
       </c>
@@ -20598,7 +20637,7 @@
         <v>0.95394238021255795</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>585</v>
       </c>
@@ -20627,7 +20666,7 @@
         <v>0.85354622369073596</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>586</v>
       </c>
@@ -20656,7 +20695,7 @@
         <v>0.79853131043874304</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>587</v>
       </c>
@@ -20685,7 +20724,7 @@
         <v>0.95442808190736494</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>588</v>
       </c>
@@ -20714,7 +20753,7 @@
         <v>0.98870802264889102</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>589</v>
       </c>
@@ -20743,7 +20782,7 @@
         <v>0.94484025557454399</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>590</v>
       </c>
@@ -20772,7 +20811,7 @@
         <v>1.0445096154451801</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>591</v>
       </c>
@@ -20801,7 +20840,7 @@
         <v>1.0208551026441799</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>592</v>
       </c>
@@ -20830,7 +20869,7 @@
         <v>0.99180809117771296</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>593</v>
       </c>
@@ -20859,7 +20898,7 @@
         <v>0.90750643025562905</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>594</v>
       </c>
@@ -20888,7 +20927,7 @@
         <v>0.931348808522245</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>595</v>
       </c>
@@ -20917,7 +20956,7 @@
         <v>0.96194173758275203</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>596</v>
       </c>
@@ -20946,7 +20985,7 @@
         <v>0.86738472074635398</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>597</v>
       </c>
@@ -20975,7 +21014,7 @@
         <v>0.87443610615464595</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>598</v>
       </c>
@@ -21004,7 +21043,7 @@
         <v>0.96787744945195897</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>599</v>
       </c>
@@ -21033,7 +21072,7 @@
         <v>0.92449089242292004</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>600</v>
       </c>
@@ -21062,7 +21101,7 @@
         <v>0.85641671755936499</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>601</v>
       </c>
@@ -21091,7 +21130,7 @@
         <v>0.911726418486836</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>602</v>
       </c>
@@ -21120,7 +21159,7 @@
         <v>0.914675041207761</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>603</v>
       </c>
@@ -21149,7 +21188,7 @@
         <v>1.0102860384663299</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>604</v>
       </c>
@@ -21178,7 +21217,7 @@
         <v>1.02295507204389</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>605</v>
       </c>
@@ -21207,7 +21246,7 @@
         <v>0.93083835427782602</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>606</v>
       </c>
@@ -21236,7 +21275,7 @@
         <v>0.96480727629222596</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>607</v>
       </c>
@@ -21265,7 +21304,7 @@
         <v>0.95575919767914697</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>608</v>
       </c>
@@ -21294,7 +21333,7 @@
         <v>0.88447153687764501</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>609</v>
       </c>
@@ -21323,7 +21362,7 @@
         <v>0.78327061504528395</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>610</v>
       </c>
@@ -21352,7 +21391,7 @@
         <v>0.91185307445432195</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>611</v>
       </c>
@@ -21381,7 +21420,7 @@
         <v>0.91047368564215603</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>612</v>
       </c>
@@ -21410,7 +21449,7 @@
         <v>1.1002739397566199</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>613</v>
       </c>
@@ -21439,7 +21478,7 @@
         <v>1.1298170114342501</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>614</v>
       </c>
@@ -21468,7 +21507,7 @@
         <v>0.98179643063392297</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>615</v>
       </c>
@@ -21497,7 +21536,7 @@
         <v>0.98687337726542401</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>616</v>
       </c>
@@ -21526,7 +21565,7 @@
         <v>0.88262169199292695</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>617</v>
       </c>
@@ -21555,7 +21594,7 @@
         <v>1.02831210545027</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>618</v>
       </c>
@@ -21584,7 +21623,7 @@
         <v>0.86549889500047195</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>619</v>
       </c>
@@ -21613,7 +21652,7 @@
         <v>0.786036163141414</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>620</v>
       </c>
@@ -21642,7 +21681,7 @@
         <v>0.88777067352624395</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>621</v>
       </c>
@@ -21671,7 +21710,7 @@
         <v>0.94366811922312399</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>622</v>
       </c>
@@ -21700,7 +21739,7 @@
         <v>0.94771770844847603</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>623</v>
       </c>
@@ -21729,7 +21768,7 @@
         <v>0.93019125099796796</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>624</v>
       </c>
@@ -21758,7 +21797,7 @@
         <v>0.95545529625445302</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>625</v>
       </c>
@@ -21787,7 +21826,7 @@
         <v>0.93125120527637095</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>626</v>
       </c>
@@ -21816,7 +21855,7 @@
         <v>0.93548544261335997</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>627</v>
       </c>
@@ -21845,7 +21884,7 @@
         <v>1.0776584671031999</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>628</v>
       </c>
@@ -21874,7 +21913,7 @@
         <v>1.0076527544866001</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>629</v>
       </c>
@@ -21903,7 +21942,7 @@
         <v>0.96895954953642704</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>630</v>
       </c>
@@ -21932,7 +21971,7 @@
         <v>0.96702968575480497</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>631</v>
       </c>
@@ -21961,7 +22000,7 @@
         <v>1.0498018073294799</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>632</v>
       </c>
@@ -21990,7 +22029,7 @@
         <v>1.0020160625278201</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>633</v>
       </c>
@@ -22019,7 +22058,7 @@
         <v>1.0122180054146599</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>634</v>
       </c>
@@ -22048,7 +22087,7 @@
         <v>1.1216621425042199</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>635</v>
       </c>
@@ -22077,7 +22116,7 @@
         <v>0.94099120519055501</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>636</v>
       </c>
@@ -22106,7 +22145,7 @@
         <v>0.93185097427532204</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>637</v>
       </c>
@@ -22135,7 +22174,7 @@
         <v>0.93659498926168405</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>638</v>
       </c>
@@ -22164,7 +22203,7 @@
         <v>0.95130453585248598</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>639</v>
       </c>
@@ -22193,7 +22232,7 @@
         <v>0.96274942338397196</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>640</v>
       </c>
@@ -22222,7 +22261,7 @@
         <v>0.88362080106825003</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>641</v>
       </c>
@@ -22251,7 +22290,7 @@
         <v>0.86593426943503804</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>642</v>
       </c>
@@ -22280,7 +22319,7 @@
         <v>0.94475685321476499</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>643</v>
       </c>
@@ -22309,7 +22348,7 @@
         <v>0.940334340327176</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>644</v>
       </c>
@@ -22338,7 +22377,7 @@
         <v>0.87153387482618305</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>645</v>
       </c>
@@ -22367,7 +22406,7 @@
         <v>0.98812675468649203</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>646</v>
       </c>
@@ -22396,7 +22435,7 @@
         <v>1.0424380416044601</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>647</v>
       </c>
@@ -22425,7 +22464,7 @@
         <v>1.0887370500768401</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>648</v>
       </c>
@@ -22454,7 +22493,7 @@
         <v>1.08575667350354</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>649</v>
       </c>
@@ -22483,7 +22522,7 @@
         <v>1.0305630654092199</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>650</v>
       </c>
@@ -22512,7 +22551,7 @@
         <v>0.99214622577038802</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>651</v>
       </c>
@@ -22541,7 +22580,7 @@
         <v>0.95878887984303496</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>652</v>
       </c>
@@ -22570,7 +22609,7 @@
         <v>0.90924170895683898</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>653</v>
       </c>
@@ -22599,7 +22638,7 @@
         <v>0.87468477139365497</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>654</v>
       </c>
@@ -22628,7 +22667,7 @@
         <v>1.10943638041258</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>655</v>
       </c>
@@ -22657,7 +22696,7 @@
         <v>1.1645425953092301</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>656</v>
       </c>
@@ -22686,7 +22725,7 @@
         <v>0.98310585818436202</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>657</v>
       </c>
@@ -22715,7 +22754,7 @@
         <v>0.94753068720415301</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>658</v>
       </c>
@@ -22744,7 +22783,7 @@
         <v>0.92847056068521805</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>659</v>
       </c>
@@ -22773,7 +22812,7 @@
         <v>0.82845561689498803</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>660</v>
       </c>
@@ -22802,7 +22841,7 @@
         <v>0.87140425839445201</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>663</v>
       </c>
@@ -22831,7 +22870,7 @@
         <v>0.98011578711917402</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>664</v>
       </c>
@@ -22860,7 +22899,7 @@
         <v>0.93422160848941505</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>665</v>
       </c>
@@ -22889,7 +22928,7 @@
         <v>0.85253881903572704</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>666</v>
       </c>
@@ -22918,7 +22957,7 @@
         <v>0.89167089047015502</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>667</v>
       </c>
@@ -22947,7 +22986,7 @@
         <v>0.914904530375794</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>668</v>
       </c>
@@ -22976,7 +23015,7 @@
         <v>0.94136604043810401</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>669</v>
       </c>
@@ -23005,7 +23044,7 @@
         <v>0.87744845078964495</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>670</v>
       </c>
@@ -23034,7 +23073,7 @@
         <v>0.89380586015637198</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>671</v>
       </c>
@@ -23063,7 +23102,7 @@
         <v>0.96082827552072303</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>672</v>
       </c>
@@ -23092,7 +23131,7 @@
         <v>0.90333943961571594</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>673</v>
       </c>
@@ -23121,7 +23160,7 @@
         <v>0.87501469125567699</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>674</v>
       </c>
@@ -23150,7 +23189,7 @@
         <v>0.82730680489511199</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>675</v>
       </c>
@@ -23179,7 +23218,7 @@
         <v>0.84718665758815803</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>676</v>
       </c>
@@ -23208,7 +23247,7 @@
         <v>0.82899306684906704</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>677</v>
       </c>
@@ -23237,7 +23276,7 @@
         <v>0.94508469481102697</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>678</v>
       </c>
@@ -23266,7 +23305,7 @@
         <v>0.96852916058134098</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>679</v>
       </c>
@@ -23295,7 +23334,7 @@
         <v>0.97405586106690201</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>680</v>
       </c>
@@ -23324,7 +23363,7 @@
         <v>0.91539483278200295</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>681</v>
       </c>
@@ -23353,7 +23392,7 @@
         <v>0.97353372146893702</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>682</v>
       </c>
@@ -23382,7 +23421,7 @@
         <v>0.93429173777698904</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>683</v>
       </c>
@@ -23411,7 +23450,7 @@
         <v>0.97136345876532604</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>684</v>
       </c>
@@ -23440,7 +23479,7 @@
         <v>0.83170819120988004</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>685</v>
       </c>
@@ -23469,7 +23508,7 @@
         <v>0.77011119063084699</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>686</v>
       </c>
@@ -23498,7 +23537,7 @@
         <v>0.88951210717542895</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>687</v>
       </c>
@@ -23527,7 +23566,7 @@
         <v>0.93973652327283796</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>688</v>
       </c>
@@ -23556,7 +23595,7 @@
         <v>0.93470307402201902</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>689</v>
       </c>
@@ -23585,7 +23624,7 @@
         <v>0.91714546015052101</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>690</v>
       </c>
@@ -23614,7 +23653,7 @@
         <v>0.92063238224301303</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>691</v>
       </c>
@@ -23643,7 +23682,7 @@
         <v>0.90070698416297101</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>692</v>
       </c>
@@ -23672,7 +23711,7 @@
         <v>0.93570936444063002</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>693</v>
       </c>
@@ -23701,7 +23740,7 @@
         <v>0.84883763312696903</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>694</v>
       </c>
@@ -23730,7 +23769,7 @@
         <v>0.84815772519667798</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>695</v>
       </c>
@@ -23759,7 +23798,7 @@
         <v>0.92789600349267398</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>696</v>
       </c>
@@ -23788,7 +23827,7 @@
         <v>0.90586568503230502</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>697</v>
       </c>
@@ -23817,7 +23856,7 @@
         <v>0.91273045749894599</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>698</v>
       </c>
@@ -23846,7 +23885,7 @@
         <v>0.80531582157233095</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>699</v>
       </c>
@@ -23875,7 +23914,7 @@
         <v>0.86043760723719398</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>700</v>
       </c>
@@ -23904,7 +23943,7 @@
         <v>0.84792296406133805</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>701</v>
       </c>
@@ -23933,7 +23972,7 @@
         <v>0.87378958547112895</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>702</v>
       </c>
@@ -23962,7 +24001,7 @@
         <v>0.88925784591722101</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>703</v>
       </c>
@@ -23991,7 +24030,7 @@
         <v>0.95034122670866905</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>704</v>
       </c>
@@ -24020,7 +24059,7 @@
         <v>0.87431172726067097</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>705</v>
       </c>
@@ -24049,7 +24088,7 @@
         <v>0.84777005733866595</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>706</v>
       </c>
@@ -24078,7 +24117,7 @@
         <v>1.0052801697971301</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>707</v>
       </c>
@@ -24107,7 +24146,7 @@
         <v>0.87534336360187304</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>708</v>
       </c>
@@ -24136,7 +24175,7 @@
         <v>0.91867175182392602</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>709</v>
       </c>
@@ -24165,7 +24204,7 @@
         <v>0.91409306934206602</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>710</v>
       </c>
@@ -24194,7 +24233,7 @@
         <v>0.82475272064592298</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>711</v>
       </c>
@@ -24223,7 +24262,7 @@
         <v>0.80897689821938201</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>712</v>
       </c>
@@ -24252,7 +24291,7 @@
         <v>0.88244925430811705</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>713</v>
       </c>
@@ -24281,7 +24320,7 @@
         <v>0.90896461490019298</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>714</v>
       </c>
@@ -24310,7 +24349,7 @@
         <v>0.91175546565369503</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>715</v>
       </c>
@@ -24339,7 +24378,7 @@
         <v>0.71878361061655105</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>716</v>
       </c>
@@ -24368,7 +24407,7 @@
         <v>0.84267156971957202</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>717</v>
       </c>
@@ -24397,7 +24436,7 @@
         <v>0.78852862072036001</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>718</v>
       </c>
@@ -24426,7 +24465,7 @@
         <v>0.87832550229523298</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>719</v>
       </c>
@@ -24455,7 +24494,7 @@
         <v>1.01726428387096</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>720</v>
       </c>
@@ -24484,7 +24523,7 @@
         <v>0.95810645789395998</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>721</v>
       </c>
@@ -24513,7 +24552,7 @@
         <v>0.96982586477511601</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>722</v>
       </c>
@@ -24542,7 +24581,7 @@
         <v>1.0068913508203701</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>723</v>
       </c>
@@ -24571,7 +24610,7 @@
         <v>0.99193369552290001</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>724</v>
       </c>
@@ -24600,7 +24639,7 @@
         <v>0.94101255324444999</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>725</v>
       </c>
@@ -24629,7 +24668,7 @@
         <v>0.89431436025658895</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>726</v>
       </c>
@@ -24658,7 +24697,7 @@
         <v>0.92360041714171404</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>727</v>
       </c>
@@ -24687,7 +24726,7 @@
         <v>0.99060990063239895</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>728</v>
       </c>
@@ -24716,7 +24755,7 @@
         <v>0.86301240089166298</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>729</v>
       </c>
@@ -24745,7 +24784,7 @@
         <v>0.79427615116935602</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>730</v>
       </c>
@@ -24774,7 +24813,7 @@
         <v>0.84663190253623499</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>731</v>
       </c>
@@ -24803,7 +24842,7 @@
         <v>0.97444061772408996</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>732</v>
       </c>
@@ -24832,7 +24871,7 @@
         <v>0.93437484634142698</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>733</v>
       </c>
@@ -24861,7 +24900,7 @@
         <v>0.91906303148622204</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>734</v>
       </c>
@@ -24890,7 +24929,7 @@
         <v>0.968384247940696</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>735</v>
       </c>
@@ -24919,7 +24958,7 @@
         <v>1.0186621243773</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>736</v>
       </c>
@@ -24948,7 +24987,7 @@
         <v>0.96339667115865302</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>737</v>
       </c>
@@ -24977,7 +25016,7 @@
         <v>0.87105030089000102</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>738</v>
       </c>
@@ -25006,7 +25045,7 @@
         <v>1.0380609312326701</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>739</v>
       </c>
@@ -25035,7 +25074,7 @@
         <v>0.94300766158295202</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>740</v>
       </c>
@@ -25064,7 +25103,7 @@
         <v>0.98336471979566398</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>741</v>
       </c>
@@ -25093,7 +25132,7 @@
         <v>0.96203846385750202</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>742</v>
       </c>
@@ -25122,7 +25161,7 @@
         <v>0.96376043396250499</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>743</v>
       </c>
@@ -25151,7 +25190,7 @@
         <v>0.96626935523941704</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>744</v>
       </c>
@@ -25180,7 +25219,7 @@
         <v>0.89563635814875897</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>745</v>
       </c>
@@ -25209,7 +25248,7 @@
         <v>0.84158561183774605</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>746</v>
       </c>
@@ -25238,7 +25277,7 @@
         <v>0.76823036051263205</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>747</v>
       </c>
@@ -25267,7 +25306,7 @@
         <v>0.936016523641784</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>748</v>
       </c>
@@ -25296,7 +25335,7 @@
         <v>0.86887305327327002</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>749</v>
       </c>
@@ -25325,7 +25364,7 @@
         <v>0.97529884437408199</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>750</v>
       </c>
@@ -25354,7 +25393,7 @@
         <v>0.97223592565971295</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>751</v>
       </c>
@@ -25383,7 +25422,7 @@
         <v>0.93327447389399798</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>752</v>
       </c>
@@ -25412,7 +25451,7 @@
         <v>0.91146755251992295</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>753</v>
       </c>
@@ -25441,7 +25480,7 @@
         <v>0.91642619487608701</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>754</v>
       </c>
@@ -25470,7 +25509,7 @@
         <v>0.89788508715861903</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>755</v>
       </c>
@@ -25499,7 +25538,7 @@
         <v>0.92100150951931303</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>756</v>
       </c>
@@ -25528,7 +25567,7 @@
         <v>0.96454331680091798</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>757</v>
       </c>
@@ -25557,7 +25596,7 @@
         <v>0.84330964584363499</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>758</v>
       </c>
@@ -25586,7 +25625,7 @@
         <v>0.80034670744896497</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>759</v>
       </c>
@@ -25615,7 +25654,7 @@
         <v>0.83945398674029403</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>760</v>
       </c>
@@ -25644,7 +25683,7 @@
         <v>0.88569895875642501</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>761</v>
       </c>
@@ -25673,7 +25712,7 @@
         <v>0.81718726187644097</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>762</v>
       </c>
@@ -25702,7 +25741,7 @@
         <v>0.82889294247307499</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>763</v>
       </c>
@@ -25731,7 +25770,7 @@
         <v>0.93608403133990103</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>764</v>
       </c>
@@ -25760,7 +25799,7 @@
         <v>0.86049195406833401</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>765</v>
       </c>
@@ -25789,7 +25828,7 @@
         <v>0.85843964217175495</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>766</v>
       </c>
@@ -25818,7 +25857,7 @@
         <v>1.01991632768647</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>767</v>
       </c>
@@ -25847,7 +25886,7 @@
         <v>0.98740514178443095</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>768</v>
       </c>
@@ -25876,7 +25915,7 @@
         <v>0.92085967112635003</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>769</v>
       </c>
@@ -25905,7 +25944,7 @@
         <v>0.83511597989320696</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>770</v>
       </c>
@@ -25934,7 +25973,7 @@
         <v>0.88837776637300603</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>771</v>
       </c>
@@ -25963,7 +26002,7 @@
         <v>0.92832184495361203</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>772</v>
       </c>
@@ -25992,7 +26031,7 @@
         <v>0.88324950360392696</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>773</v>
       </c>
@@ -26021,7 +26060,7 @@
         <v>0.81321273011689399</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>774</v>
       </c>
@@ -26050,7 +26089,7 @@
         <v>0.781003716276366</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>775</v>
       </c>
@@ -26079,7 +26118,7 @@
         <v>0.78384743366718601</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>776</v>
       </c>
@@ -26108,7 +26147,7 @@
         <v>0.83834676778317996</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>777</v>
       </c>
@@ -26137,7 +26176,7 @@
         <v>0.92793770038351298</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>778</v>
       </c>
@@ -26166,7 +26205,7 @@
         <v>0.88272104877920898</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>779</v>
       </c>
@@ -26195,7 +26234,7 @@
         <v>0.83967064810153103</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>780</v>
       </c>
@@ -26224,7 +26263,7 @@
         <v>0.89787923243669499</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>781</v>
       </c>
@@ -26253,7 +26292,7 @@
         <v>0.88637603631225403</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>782</v>
       </c>
@@ -26282,7 +26321,7 @@
         <v>0.91239703732809396</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>783</v>
       </c>
@@ -26311,7 +26350,7 @@
         <v>0.89307658859984096</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>784</v>
       </c>
@@ -26340,7 +26379,7 @@
         <v>0.89210109304152396</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>785</v>
       </c>
@@ -26369,7 +26408,7 @@
         <v>1.03218970685705</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>786</v>
       </c>
@@ -26398,7 +26437,7 @@
         <v>1.0333695026502101</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>787</v>
       </c>
@@ -26427,7 +26466,7 @@
         <v>1.0016544770096301</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>788</v>
       </c>
@@ -26456,7 +26495,7 @@
         <v>0.93831894059661902</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>789</v>
       </c>
@@ -26485,7 +26524,7 @@
         <v>0.89581957327252304</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>790</v>
       </c>
@@ -26514,7 +26553,7 @@
         <v>1.0170432126542801</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>791</v>
       </c>
@@ -26543,7 +26582,7 @@
         <v>0.91551353359868504</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>792</v>
       </c>
@@ -26572,7 +26611,7 @@
         <v>0.87296504146880005</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>793</v>
       </c>
@@ -26601,7 +26640,7 @@
         <v>0.94443422016105905</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>794</v>
       </c>
@@ -26630,7 +26669,7 @@
         <v>0.90732836601595601</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>795</v>
       </c>
@@ -26659,7 +26698,7 @@
         <v>0.87891820743545102</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>796</v>
       </c>
@@ -26688,7 +26727,7 @@
         <v>0.98051175838900695</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>797</v>
       </c>
@@ -26717,7 +26756,7 @@
         <v>0.987286499528369</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>798</v>
       </c>
@@ -26746,7 +26785,7 @@
         <v>0.91410078519522597</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>799</v>
       </c>
@@ -26775,7 +26814,7 @@
         <v>0.98620780360015703</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>800</v>
       </c>
@@ -26804,7 +26843,7 @@
         <v>0.92925238525800002</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>801</v>
       </c>
@@ -26833,7 +26872,7 @@
         <v>0.97668623140929101</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>802</v>
       </c>
@@ -26862,7 +26901,7 @@
         <v>0.90790326339290806</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>803</v>
       </c>
@@ -26891,7 +26930,7 @@
         <v>0.95690086919266004</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>804</v>
       </c>
@@ -26920,7 +26959,7 @@
         <v>0.99500732691615501</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>805</v>
       </c>
@@ -26949,7 +26988,7 @@
         <v>1.0274699368470099</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>806</v>
       </c>
@@ -26978,7 +27017,7 @@
         <v>0.94623172352449703</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>807</v>
       </c>
@@ -27007,7 +27046,7 @@
         <v>1.0659697152343901</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>808</v>
       </c>
@@ -27036,7 +27075,7 @@
         <v>0.96182693986850298</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>809</v>
       </c>
@@ -27065,7 +27104,7 @@
         <v>0.90616719626912201</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>810</v>
       </c>
@@ -27094,7 +27133,7 @@
         <v>0.99903071908307195</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>811</v>
       </c>
@@ -27123,7 +27162,7 @@
         <v>1.0071814857738299</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>812</v>
       </c>
@@ -27152,7 +27191,7 @@
         <v>0.870003621046745</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>813</v>
       </c>
@@ -27181,7 +27220,7 @@
         <v>0.92328698263167197</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>814</v>
       </c>
@@ -27210,7 +27249,7 @@
         <v>0.96144201093557202</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>815</v>
       </c>
@@ -27239,7 +27278,7 @@
         <v>0.95584801415499998</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>816</v>
       </c>
@@ -27268,7 +27307,7 @@
         <v>0.95756380495089499</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>817</v>
       </c>
@@ -27297,7 +27336,7 @@
         <v>0.98742332252432397</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>818</v>
       </c>
@@ -27326,7 +27365,7 @@
         <v>0.98126903312202396</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>819</v>
       </c>
@@ -27355,7 +27394,7 @@
         <v>0.93214195262493404</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>820</v>
       </c>
@@ -27384,7 +27423,7 @@
         <v>0.94981451016074103</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>821</v>
       </c>
@@ -27413,7 +27452,7 @@
         <v>0.91212474731704596</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>822</v>
       </c>
@@ -27442,7 +27481,7 @@
         <v>0.92596821557400699</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>823</v>
       </c>
@@ -27471,7 +27510,7 @@
         <v>0.92781625947898105</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>824</v>
       </c>
@@ -27500,7 +27539,7 @@
         <v>0.81875569442118001</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>825</v>
       </c>
@@ -27529,7 +27568,7 @@
         <v>0.93226377100413005</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>826</v>
       </c>
@@ -27558,7 +27597,7 @@
         <v>0.93017146509770698</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>827</v>
       </c>
@@ -27587,7 +27626,7 @@
         <v>0.84951753898389804</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>828</v>
       </c>
@@ -27616,7 +27655,7 @@
         <v>0.90529023201687697</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>829</v>
       </c>
@@ -27645,7 +27684,7 @@
         <v>0.96622159485650305</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>830</v>
       </c>
@@ -27674,7 +27713,7 @@
         <v>0.95725536274832301</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>831</v>
       </c>
@@ -27703,7 +27742,7 @@
         <v>0.990985195048527</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>832</v>
       </c>
@@ -27732,7 +27771,7 @@
         <v>0.96984763542385299</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>833</v>
       </c>
@@ -27761,7 +27800,7 @@
         <v>0.95954165738614206</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>834</v>
       </c>
@@ -27790,7 +27829,7 @@
         <v>0.92055640838281005</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>835</v>
       </c>
@@ -27819,7 +27858,7 @@
         <v>0.95869113050560895</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>836</v>
       </c>
@@ -27848,7 +27887,7 @@
         <v>0.93827764647706902</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>837</v>
       </c>
@@ -27877,7 +27916,7 @@
         <v>0.92461006542550295</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>838</v>
       </c>
@@ -27906,7 +27945,7 @@
         <v>0.98140588881072999</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>839</v>
       </c>
@@ -27935,7 +27974,7 @@
         <v>0.91768166512320604</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>840</v>
       </c>
@@ -27964,7 +28003,7 @@
         <v>0.87845522916456398</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>841</v>
       </c>
@@ -27993,7 +28032,7 @@
         <v>0.88996956247819203</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>842</v>
       </c>
@@ -28022,7 +28061,7 @@
         <v>1.0207917363444801</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>843</v>
       </c>
@@ -28051,7 +28090,7 @@
         <v>0.92307118050034198</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>844</v>
       </c>
@@ -28080,7 +28119,7 @@
         <v>0.90166565399987797</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>845</v>
       </c>
@@ -28109,7 +28148,7 @@
         <v>1.0596799151240599</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>846</v>
       </c>
@@ -28138,7 +28177,7 @@
         <v>0.99077405011381603</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>847</v>
       </c>
@@ -28167,7 +28206,7 @@
         <v>0.99715215174254901</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>848</v>
       </c>
@@ -28196,7 +28235,7 @@
         <v>0.98479039109385502</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>849</v>
       </c>
@@ -28225,7 +28264,7 @@
         <v>0.88438213098410101</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>850</v>
       </c>
@@ -28254,7 +28293,7 @@
         <v>0.94443856788553304</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>851</v>
       </c>
@@ -28283,7 +28322,7 @@
         <v>0.99860611514062503</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>852</v>
       </c>
@@ -28312,7 +28351,7 @@
         <v>0.98098846019007901</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>853</v>
       </c>
@@ -28341,7 +28380,7 @@
         <v>0.89370525887406005</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>854</v>
       </c>
@@ -28370,7 +28409,7 @@
         <v>0.98979624537865096</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>855</v>
       </c>
@@ -28399,7 +28438,7 @@
         <v>0.88196348153757198</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>856</v>
       </c>
@@ -28428,7 +28467,7 @@
         <v>0.96520132038876505</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>857</v>
       </c>
@@ -28457,7 +28496,7 @@
         <v>0.921416082864283</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>858</v>
       </c>
@@ -28486,7 +28525,7 @@
         <v>0.92226223957408004</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>859</v>
       </c>
@@ -28518,4 +28557,393 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18563E4-491D-4B0C-AF08-01CD92391640}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>873</v>
+      </c>
+      <c r="D8" t="s">
+        <v>873</v>
+      </c>
+      <c r="E8" t="s">
+        <v>873</v>
+      </c>
+      <c r="F8" t="s">
+        <v>873</v>
+      </c>
+      <c r="G8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>873</v>
+      </c>
+      <c r="E9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.26045424821424701</v>
+      </c>
+      <c r="C10">
+        <v>0.77671732967747298</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>873</v>
+      </c>
+      <c r="F10" t="s">
+        <v>873</v>
+      </c>
+      <c r="G10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>8.7659476022364999E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.28030108146008698</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>873</v>
+      </c>
+      <c r="G11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.3450190886210597E-11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.6583896045681699E-10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.0113149096296E-7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.24713940929324E-6</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.0647013483970601E-5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.37188564472613E-17</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5.6895774940944203E-17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.46080396724549E-12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.00937127202869E-10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1.15691384258361E-8</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.61968552044196901</v>
+      </c>
+      <c r="C20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D20" t="s">
+        <v>873</v>
+      </c>
+      <c r="E20" t="s">
+        <v>873</v>
+      </c>
+      <c r="F20" t="s">
+        <v>873</v>
+      </c>
+      <c r="G20" t="s">
+        <v>873</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>9.2183217075677198E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.214515014263154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>873</v>
+      </c>
+      <c r="E21" t="s">
+        <v>873</v>
+      </c>
+      <c r="F21" t="s">
+        <v>873</v>
+      </c>
+      <c r="G21" t="s">
+        <v>873</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.2402583248297501E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.69865395084511E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.413144768818834</v>
+      </c>
+      <c r="E22" t="s">
+        <v>873</v>
+      </c>
+      <c r="F22" t="s">
+        <v>873</v>
+      </c>
+      <c r="G22" t="s">
+        <v>873</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.1742607629697602E-3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.33476705457184E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.213994160699118</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.64914740938093796</v>
+      </c>
+      <c r="F23" t="s">
+        <v>873</v>
+      </c>
+      <c r="G23" t="s">
+        <v>873</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1.5928662326767001E-12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.8970933550865199E-12</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9.5776900458552207E-9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.4510187663301098E-7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4.3165244516176496E-6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>873</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.53278878441014E-19</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2.7093226162354401E-18</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.9562093678356706E-14</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9.5684346287080496E-12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5.5091135361124404E-10</v>
+      </c>
+      <c r="G25">
+        <v>0.30289511090336901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wing results/2017_10_16Lab 18 prelim data table.xlsx
+++ b/Wing results/2017_10_16Lab 18 prelim data table.xlsx
@@ -2698,9 +2698,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2708,6 +2705,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3024,7 +3024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3035,14 +3035,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
@@ -28564,7 +28564,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28580,20 +28580,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -28711,19 +28711,19 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>3.3450190886210597E-11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1.6583896045681699E-10</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2.0113149096296E-7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>7.24713940929324E-6</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>9.0647013483970601E-5</v>
       </c>
       <c r="G12" t="s">
@@ -28734,19 +28734,19 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1.37188564472613E-17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>5.6895774940944203E-17</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.46080396724549E-12</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.00937127202869E-10</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1.15691384258361E-8</v>
       </c>
       <c r="G13">
@@ -28754,21 +28754,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
@@ -28789,7 +28789,7 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
@@ -28813,7 +28813,7 @@
       <c r="G20" t="s">
         <v>873</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
@@ -28837,19 +28837,19 @@
       <c r="G21" t="s">
         <v>873</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1.2402583248297501E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>3.69865395084511E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.413144768818834</v>
       </c>
       <c r="E22" t="s">
@@ -28861,22 +28861,22 @@
       <c r="G22" t="s">
         <v>873</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>4.1742607629697602E-3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>1.33476705457184E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.213994160699118</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.64914740938093796</v>
       </c>
       <c r="F23" t="s">
@@ -28885,49 +28885,49 @@
       <c r="G23" t="s">
         <v>873</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1.5928662326767001E-12</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>7.8970933550865199E-12</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>9.5776900458552207E-9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>3.4510187663301098E-7</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>4.3165244516176496E-6</v>
       </c>
       <c r="G24" t="s">
         <v>873</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>6.53278878441014E-19</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>2.7093226162354401E-18</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>6.9562093678356706E-14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>9.5684346287080496E-12</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>5.5091135361124404E-10</v>
       </c>
       <c r="G25">
@@ -28935,10 +28935,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>872</v>
       </c>
     </row>
